--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3531.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3531.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.471581793033906</v>
+        <v>1.275139689445496</v>
       </c>
       <c r="B1">
-        <v>2.914553608418705</v>
+        <v>1.483788728713989</v>
       </c>
       <c r="C1">
-        <v>2.975181235925342</v>
+        <v>1.502338528633118</v>
       </c>
       <c r="D1">
-        <v>2.220614195940262</v>
+        <v>1.565640807151794</v>
       </c>
       <c r="E1">
-        <v>0.8325745269500118</v>
+        <v>1.257529377937317</v>
       </c>
     </row>
   </sheetData>
